--- a/Precipitation_bias_rating.xlsx
+++ b/Precipitation_bias_rating.xlsx
@@ -71,9 +71,6 @@
     <t>I</t>
   </si>
   <si>
-    <t xml:space="preserve">Bernoulli-Gamma </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bernoulli-Weibull </t>
   </si>
   <si>
@@ -104,7 +101,10 @@
     <t>Non-Parametric QMusing Robust EQ_tricub</t>
   </si>
   <si>
-    <t xml:space="preserve">Bernoulli_Exponential </t>
+    <t>Bernoulli_Exponential</t>
+  </si>
+  <si>
+    <t>Bernoulli_Gamma</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:O407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,40 +489,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
